--- a/Gantt chart (2).xlsx
+++ b/Gantt chart (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2810ICT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2810ICT\2810ICT-2022-Assignment-group30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{34962AD4-4D58-4132-B8A2-F8DE3962E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFCFEA91-FDA3-4722-A1B1-F43781D64642}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39F4B31-0583-4FA0-9CA6-6EB7E7C7C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="420" windowWidth="23760" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -659,6 +659,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,21 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1097,11 +1097,11 @@
   </sheetPr>
   <dimension ref="B1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="53.875" style="2" customWidth="1"/>
@@ -1114,7 +1114,7 @@
     <col min="42" max="42" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1">
+    <row r="1" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1137,37 +1137,37 @@
         <v>1</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="14"/>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="31"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="19" t="s">
         <v>6</v>
@@ -1180,23 +1180,23 @@
       <c r="AO2" s="20"/>
       <c r="AP2" s="20"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1222,13 +1222,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
         <v>34</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>38</v>
       </c>
@@ -1900,13 +1900,17 @@
       <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
       <c r="G29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
         <v>39</v>
       </c>
@@ -1916,13 +1920,17 @@
       <c r="D30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="6">
+        <v>30</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
       <c r="G30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
         <v>40</v>
       </c>
@@ -1932,13 +1940,17 @@
       <c r="D31" s="6">
         <v>3</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="6">
+        <v>30</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
       <c r="G31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
         <v>41</v>
       </c>
@@ -1948,13 +1960,17 @@
       <c r="D32" s="6">
         <v>3</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="6">
+        <v>31</v>
+      </c>
+      <c r="F32" s="6">
+        <v>4</v>
+      </c>
       <c r="G32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
         <v>42</v>
       </c>
@@ -1964,13 +1980,17 @@
       <c r="D33" s="6">
         <v>5</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="6">
+        <v>33</v>
+      </c>
+      <c r="F33" s="6">
+        <v>6</v>
+      </c>
       <c r="G33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="22" t="s">
         <v>43</v>
       </c>
@@ -1980,13 +2000,17 @@
       <c r="D34" s="6">
         <v>3</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="6">
+        <v>35</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
       <c r="G34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="22" t="s">
         <v>44</v>
       </c>
@@ -1996,13 +2020,17 @@
       <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="6">
+        <v>36</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
       <c r="G35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
@@ -2012,13 +2040,17 @@
       <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="6">
+        <v>38</v>
+      </c>
+      <c r="F36" s="6">
+        <v>6</v>
+      </c>
       <c r="G36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="22" t="s">
         <v>46</v>
       </c>
@@ -2028,13 +2060,17 @@
       <c r="D37" s="6">
         <v>3</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="6">
+        <v>38</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3</v>
+      </c>
       <c r="G37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="22" t="s">
         <v>47</v>
       </c>
@@ -2044,25 +2080,29 @@
       <c r="D38" s="6">
         <v>2</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="6">
+        <v>39</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
       <c r="G38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO38">
@@ -2131,18 +2171,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2278,13 +2318,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D006671B-B974-4798-8D9A-5BF3D6C4E584}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89E4DF2A-DDE7-4764-8415-D822846517B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89E4DF2A-DDE7-4764-8415-D822846517B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D006671B-B974-4798-8D9A-5BF3D6C4E584}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466BD24E-F047-4840-82F9-42EC507AC810}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{466BD24E-F047-4840-82F9-42EC507AC810}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12431587-8fe2-469b-8d7c-8f4bf9831630"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>